--- a/teacher_app/xuesheng.xlsx
+++ b/teacher_app/xuesheng.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75302273-96F2-4957-BB5B-8B8C8D5F8C7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A4CF3-9CAA-4EFD-AAB7-6C665E6D5C2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>张山</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,15 +397,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -408,19 +419,22 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
+      <c r="I1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +448,7 @@
         <v>80</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -443,11 +457,10 @@
         <v>70</v>
       </c>
       <c r="H2">
-        <f>C2+D2+E2+F2+G2</f>
-        <v>370</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -461,7 +474,7 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -470,11 +483,10 @@
         <v>80</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">C3+D3+E3+F3+G3</f>
-        <v>420</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -488,7 +500,7 @@
         <v>70</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>90</v>
@@ -497,8 +509,7 @@
         <v>90</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>410</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
